--- a/assets/My_readings.xlsx
+++ b/assets/My_readings.xlsx
@@ -308,8 +308,8 @@
   </sheetPr>
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F34" activeCellId="0" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -364,10 +364,10 @@
         <v>43954</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0</v>
+        <v>0.65625</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -396,10 +396,10 @@
         <v>43899</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>0</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>10</v>
@@ -428,10 +428,10 @@
         <v>43901</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>0</v>
+        <v>0.791666666666667</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>10</v>
@@ -460,10 +460,10 @@
         <v>43901</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>0</v>
+        <v>0.840277777777778</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>13</v>
@@ -492,10 +492,10 @@
         <v>43912</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0</v>
+        <v>0.791666666666667</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>10</v>
@@ -524,10 +524,10 @@
         <v>43917</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>0</v>
+        <v>0.791666666666667</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>13</v>
@@ -556,10 +556,10 @@
         <v>43921</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>0</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>0</v>
+        <v>0.604166666666667</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>13</v>
@@ -588,10 +588,10 @@
         <v>43933</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>0</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>13</v>
@@ -620,10 +620,10 @@
         <v>43969</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>0</v>
+        <v>0.78125</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>13</v>
@@ -748,10 +748,10 @@
         <v>43975</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>0</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>0</v>
+        <v>0.729166666666667</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
@@ -780,10 +780,10 @@
         <v>43975</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>0</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>0</v>
+        <v>0.854166666666667</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>16</v>
@@ -812,10 +812,10 @@
         <v>43976</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>0</v>
+        <v>0.791666666666667</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>0</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>10</v>
@@ -844,10 +844,10 @@
         <v>43976</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>0</v>
+        <v>0.836805555555556</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>0</v>
+        <v>0.857638888888889</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>16</v>
@@ -876,10 +876,10 @@
         <v>43977</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>0</v>
+        <v>0.763888888888889</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>10</v>
@@ -908,10 +908,10 @@
         <v>43977</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>0</v>
+        <v>0.770833333333333</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>0</v>
+        <v>0.8125</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>16</v>
@@ -940,10 +940,10 @@
         <v>43986</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>0</v>
+        <v>0.541666666666667</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>16</v>
@@ -963,10 +963,10 @@
         <v>43987</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>0</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>0</v>
+        <v>0.604166666666667</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>16</v>
@@ -986,10 +986,10 @@
         <v>43988</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>0</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>0</v>
+        <v>0.729166666666667</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>16</v>
@@ -1009,10 +1009,10 @@
         <v>43990</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>0</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>0</v>
+        <v>0.836805555555556</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>10</v>
@@ -1041,10 +1041,10 @@
         <v>43990</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>0</v>
+        <v>0.840277777777778</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>0</v>
+        <v>0.881944444444444</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>19</v>
@@ -1073,10 +1073,10 @@
         <v>43991</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>0</v>
+        <v>0.763888888888889</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>19</v>
@@ -1105,10 +1105,10 @@
         <v>43993</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>0</v>
+        <v>0.791666666666667</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>19</v>
@@ -1137,10 +1137,10 @@
         <v>43994</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>0</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>0</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>19</v>

--- a/assets/My_readings.xlsx
+++ b/assets/My_readings.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="24">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -306,10 +306,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F34" activeCellId="0" sqref="F34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A46" activeCellId="0" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1452,6 +1452,291 @@
         <v>1</v>
       </c>
     </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>44005</v>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>0.819444444444444</v>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" s="3" t="n">
+        <v>382</v>
+      </c>
+      <c r="H37" s="3" t="n">
+        <v>443</v>
+      </c>
+      <c r="I37" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="J37" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>44005</v>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>0.881944444444444</v>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>0.892361111111111</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="3" t="n">
+        <v>77</v>
+      </c>
+      <c r="H38" s="3" t="n">
+        <v>85</v>
+      </c>
+      <c r="I38" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="J38" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>44006</v>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" s="3" t="n">
+        <v>444</v>
+      </c>
+      <c r="H39" s="3" t="n">
+        <v>460</v>
+      </c>
+      <c r="I39" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="J39" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>44007</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>0.854166666666667</v>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>0.888888888888889</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" s="3" t="n">
+        <v>461</v>
+      </c>
+      <c r="H40" s="3" t="n">
+        <v>487</v>
+      </c>
+      <c r="I40" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="J40" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>44008</v>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>0.815972222222222</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" s="3" t="n">
+        <v>488</v>
+      </c>
+      <c r="H41" s="3" t="n">
+        <v>530</v>
+      </c>
+      <c r="J41" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <v>44009</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>0.552083333333333</v>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>0.576388888888889</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" s="3" t="n">
+        <v>531</v>
+      </c>
+      <c r="H42" s="3" t="n">
+        <v>556</v>
+      </c>
+      <c r="I42" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="J42" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>44019</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>0.895833333333333</v>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G43" s="3" t="n">
+        <v>557</v>
+      </c>
+      <c r="H43" s="3" t="n">
+        <v>588</v>
+      </c>
+      <c r="I43" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="J43" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>44142</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>0.729166666666667</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G44" s="3" t="n">
+        <v>589</v>
+      </c>
+      <c r="H44" s="3" t="n">
+        <v>638</v>
+      </c>
+      <c r="I44" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="J44" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <v>44025</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>0.71875</v>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>0.760416666666667</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G45" s="3" t="n">
+        <v>639</v>
+      </c>
+      <c r="H45" s="3" t="n">
+        <v>687</v>
+      </c>
+      <c r="I45" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="J45" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
